--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-2.xlsx_with_dialog_acts.xlsx
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3415,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4969,12 +4969,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5473,12 +5473,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5645,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6699,12 +6699,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6783,12 +6783,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6825,12 +6825,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7711,12 +7711,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8845,12 +8845,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9685,12 +9685,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10777,12 +10777,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11199,12 +11199,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11659,12 +11659,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11871,12 +11871,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12543,12 +12543,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12669,12 +12669,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13649,12 +13649,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13769,12 +13769,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15373,12 +15373,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15533,12 +15533,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15737,12 +15737,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15937,12 +15937,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16017,12 +16017,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16177,12 +16177,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18897,12 +18897,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19331,12 +19331,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19411,12 +19411,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19531,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20453,12 +20453,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20613,12 +20613,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20733,12 +20733,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20973,12 +20973,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21133,12 +21133,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21213,12 +21213,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21293,12 +21293,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21373,12 +21373,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21693,12 +21693,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21773,12 +21773,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21933,12 +21933,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21973,12 +21973,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22171,12 +22171,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22291,12 +22291,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22331,12 +22331,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22531,12 +22531,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22891,12 +22891,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23369,12 +23369,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23609,12 +23609,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23689,12 +23689,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23769,12 +23769,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23809,12 +23809,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
